--- a/r5-core-17-municipality-code-to-austrian-address/StructureDefinition-at-core-patient.xlsx
+++ b/r5-core-17-municipality-code-to-austrian-address/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-09T19:09:04+00:00</t>
+    <t>2024-10-23T07:06:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1997,7 +1997,7 @@
 The ISO21090-codedString may be used to provide a coded representation of the contents of strings in an Address.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R5/location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
